--- a/Excel/04_02_Mapping Study.xlsx
+++ b/Excel/04_02_Mapping Study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bosch-my.sharepoint.com/personal/nnr3fe_bosch_com/Documents/PersonalDrive/HTWG/BA/LaTex/Thesis/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{DBAD74C7-CECB-6D40-BA98-94607ACEA1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{263CE0E9-3280-4BAB-8C5A-928ED958727E}"/>
+  <xr:revisionPtr revIDLastSave="243" documentId="13_ncr:1_{DBAD74C7-CECB-6D40-BA98-94607ACEA1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1674C6BB-D536-4F1B-AD29-2F491214BC88}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0DD4CFEA-C2F1-46F7-88F8-AB6F3727EE8E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{0DD4CFEA-C2F1-46F7-88F8-AB6F3727EE8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Zusammenfassung RQ1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="94">
   <si>
     <t>Anzahl Papers</t>
   </si>
@@ -352,6 +352,12 @@
   </si>
   <si>
     <t xml:space="preserve">Monitoring </t>
+  </si>
+  <si>
+    <t>Sicherheits &amp; Bedrohungserkennnung</t>
+  </si>
+  <si>
+    <t>Betrieb &amp; Orchestrierung</t>
   </si>
 </sst>
 </file>
@@ -1710,10 +1716,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FA32D9-5FDF-4B13-A8A2-A3E26E74C01B}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:F6"/>
+      <selection activeCell="B2" sqref="B2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1722,7 +1728,7 @@
     <col min="2" max="6" width="21.81640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="42" t="s">
         <v>24</v>
       </c>
@@ -1742,7 +1748,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
@@ -1756,13 +1762,13 @@
         <v>9</v>
       </c>
       <c r="E2" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>29</v>
       </c>
@@ -1773,18 +1779,19 @@
         <v>16</v>
       </c>
       <c r="D3" s="6">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6">
         <v>14</v>
       </c>
-      <c r="E3" s="6">
-        <v>15</v>
-      </c>
       <c r="F3" s="6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="B4" s="6">
         <v>14</v>
@@ -1793,7 +1800,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="6">
         <v>11</v>
@@ -1802,9 +1809,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="B5" s="6">
         <v>17</v>
@@ -1813,33 +1820,13 @@
         <v>16</v>
       </c>
       <c r="D5" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="6">
         <v>16</v>
       </c>
       <c r="F5" s="6">
         <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="6">
-        <v>14</v>
-      </c>
-      <c r="C6" s="6">
-        <v>13</v>
-      </c>
-      <c r="D6" s="6">
-        <v>13</v>
-      </c>
-      <c r="E6" s="6">
-        <v>12</v>
-      </c>
-      <c r="F6" s="6">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/04_02_Mapping Study.xlsx
+++ b/Excel/04_02_Mapping Study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bosch-my.sharepoint.com/personal/nnr3fe_bosch_com/Documents/PersonalDrive/HTWG/BA/LaTex/Thesis/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilsarnold/Documents/WIN-Studium/7. Semester/BA/Thesis/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="243" documentId="13_ncr:1_{DBAD74C7-CECB-6D40-BA98-94607ACEA1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1674C6BB-D536-4F1B-AD29-2F491214BC88}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42C1E07-A36E-5849-AE60-721F4C21E319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{0DD4CFEA-C2F1-46F7-88F8-AB6F3727EE8E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{0DD4CFEA-C2F1-46F7-88F8-AB6F3727EE8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Zusammenfassung RQ1" sheetId="1" r:id="rId1"/>
@@ -1143,16 +1143,16 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" customWidth="1"/>
-    <col min="2" max="2" width="30.6328125" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
     <col min="3" max="3" width="39" customWidth="1"/>
-    <col min="4" max="4" width="74.6328125" customWidth="1"/>
-    <col min="5" max="5" width="41.1796875" customWidth="1"/>
+    <col min="4" max="4" width="74.6640625" customWidth="1"/>
+    <col min="5" max="5" width="41.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:46" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:46" s="4" customFormat="1" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:46" s="4" customFormat="1" ht="51.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
         <v>12</v>
       </c>
@@ -1217,7 +1217,7 @@
       <c r="AS2"/>
       <c r="AT2"/>
     </row>
-    <row r="3" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:46" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="43"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -1271,7 +1271,7 @@
       <c r="AS3"/>
       <c r="AT3"/>
     </row>
-    <row r="4" spans="1:46" s="4" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:46" s="4" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A4" s="43"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -1325,7 +1325,7 @@
       <c r="AS4"/>
       <c r="AT4"/>
     </row>
-    <row r="5" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:46" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="43"/>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -1379,7 +1379,7 @@
       <c r="AS5"/>
       <c r="AT5"/>
     </row>
-    <row r="6" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:46" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="43"/>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -1433,7 +1433,7 @@
       <c r="AS6"/>
       <c r="AT6"/>
     </row>
-    <row r="7" spans="1:46" s="4" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:46" s="4" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A7" s="43" t="s">
         <v>18</v>
       </c>
@@ -1489,7 +1489,7 @@
       <c r="AS7"/>
       <c r="AT7"/>
     </row>
-    <row r="8" spans="1:46" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:46" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="43"/>
       <c r="B8" s="1" t="s">
         <v>14</v>
@@ -1543,7 +1543,7 @@
       <c r="AS8"/>
       <c r="AT8"/>
     </row>
-    <row r="9" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:46" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="43"/>
       <c r="B9" s="1" t="s">
         <v>15</v>
@@ -1597,7 +1597,7 @@
       <c r="AS9"/>
       <c r="AT9"/>
     </row>
-    <row r="10" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:46" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="43"/>
       <c r="B10" s="1" t="s">
         <v>16</v>
@@ -1651,7 +1651,7 @@
       <c r="AS10"/>
       <c r="AT10"/>
     </row>
-    <row r="11" spans="1:46" s="4" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:46" s="4" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A11" s="43"/>
       <c r="B11" s="1" t="s">
         <v>17</v>
@@ -1718,17 +1718,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FA32D9-5FDF-4B13-A8A2-A3E26E74C01B}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F5"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.36328125" customWidth="1"/>
-    <col min="2" max="6" width="21.81640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1"/>
+    <col min="2" max="6" width="21.83203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>24</v>
       </c>
@@ -1748,15 +1748,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="6">
         <v>9</v>
@@ -1768,69 +1768,70 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D3" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3" s="6">
         <v>11</v>
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>92</v>
       </c>
       <c r="B4" s="6">
+        <v>13</v>
+      </c>
+      <c r="C4" s="6">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6">
         <v>14</v>
       </c>
-      <c r="C4" s="6">
-        <v>13</v>
-      </c>
-      <c r="D4" s="6">
-        <v>13</v>
-      </c>
       <c r="E4" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>93</v>
       </c>
       <c r="B5" s="6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5" s="6">
         <v>13</v>
       </c>
       <c r="E5" s="6">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F5" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1842,17 +1843,17 @@
       <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.81640625" customWidth="1"/>
-    <col min="2" max="2" width="42.453125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="27.81640625" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="19.453125" style="12" customWidth="1"/>
-    <col min="6" max="10" width="21.81640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="45.83203125" customWidth="1"/>
+    <col min="2" max="2" width="42.5" style="11" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="12" customWidth="1"/>
+    <col min="6" max="10" width="21.83203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
@@ -1869,7 +1870,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
@@ -1886,7 +1887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
@@ -1904,7 +1905,7 @@
       </c>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -1922,7 +1923,7 @@
       </c>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>25</v>
       </c>
@@ -1940,7 +1941,7 @@
       </c>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
@@ -1958,7 +1959,7 @@
       </c>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
@@ -1976,7 +1977,7 @@
       </c>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>29</v>
       </c>
@@ -1994,7 +1995,7 @@
       </c>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>29</v>
       </c>
@@ -2011,7 +2012,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>29</v>
       </c>
@@ -2028,7 +2029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
@@ -2045,7 +2046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>31</v>
       </c>
@@ -2063,7 +2064,7 @@
       </c>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>31</v>
       </c>
@@ -2080,7 +2081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>31</v>
       </c>
@@ -2097,7 +2098,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
@@ -2114,7 +2115,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
@@ -2131,7 +2132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
@@ -2148,7 +2149,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>32</v>
       </c>
@@ -2165,7 +2166,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>32</v>
       </c>
@@ -2182,7 +2183,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>32</v>
       </c>
@@ -2199,7 +2200,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>32</v>
       </c>
@@ -2216,7 +2217,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>33</v>
       </c>
@@ -2233,7 +2234,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>33</v>
       </c>
@@ -2250,7 +2251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>33</v>
       </c>
@@ -2267,7 +2268,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>33</v>
       </c>
@@ -2284,7 +2285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>33</v>
       </c>
@@ -2315,14 +2316,14 @@
       <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="4" width="23.81640625" customWidth="1"/>
-    <col min="7" max="10" width="26.1796875" customWidth="1"/>
+    <col min="2" max="4" width="23.83203125" customWidth="1"/>
+    <col min="7" max="10" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>39</v>
       </c>
@@ -2348,7 +2349,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>43</v>
       </c>
@@ -2374,7 +2375,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>44</v>
       </c>
@@ -2400,7 +2401,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>45</v>
       </c>
@@ -2426,7 +2427,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>46</v>
       </c>
@@ -2452,7 +2453,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>59</v>
       </c>
@@ -2469,7 +2470,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="28" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>51</v>
       </c>
@@ -2486,7 +2487,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>54</v>
       </c>
@@ -2503,7 +2504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="28" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>51</v>
       </c>
@@ -2520,7 +2521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>54</v>
       </c>
@@ -2537,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="28" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>55</v>
       </c>
@@ -2554,7 +2555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>55</v>
       </c>
@@ -2571,7 +2572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="28" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>55</v>
       </c>
@@ -2588,7 +2589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>55</v>
       </c>
@@ -2605,7 +2606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="28" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>53</v>
       </c>
@@ -2622,7 +2623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>53</v>
       </c>
@@ -2639,7 +2640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="28" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>53</v>
       </c>
@@ -2656,7 +2657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>53</v>
       </c>
@@ -2686,12 +2687,12 @@
       <selection activeCell="A8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="29.81640625" customWidth="1"/>
+    <col min="1" max="5" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="17" t="s">
         <v>51</v>
@@ -2703,7 +2704,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>25</v>
       </c>
@@ -2717,7 +2718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>29</v>
       </c>
@@ -2731,7 +2732,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>26</v>
       </c>
@@ -2745,7 +2746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>27</v>
       </c>
@@ -2759,7 +2760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>28</v>
       </c>
@@ -2773,29 +2774,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="44" t="s">
         <v>63</v>
       </c>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -2816,13 +2817,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="19.6328125" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C1" s="45" t="s">
         <v>18</v>
       </c>
@@ -2831,7 +2832,7 @@
       <c r="F1" s="46"/>
       <c r="G1" s="47"/>
     </row>
-    <row r="2" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
       <c r="B2" s="31"/>
       <c r="C2" s="32" t="s">
@@ -2850,7 +2851,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
         <v>42</v>
       </c>
@@ -2873,7 +2874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="49"/>
       <c r="B4" s="34" t="s">
         <v>57</v>
@@ -2894,7 +2895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="50"/>
       <c r="B5" s="27" t="s">
         <v>58</v>
@@ -2915,7 +2916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
         <v>40</v>
       </c>
@@ -2938,7 +2939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="50"/>
       <c r="B7" s="27" t="s">
         <v>64</v>
@@ -2959,7 +2960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
         <v>41</v>
       </c>
@@ -2982,7 +2983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" s="23" t="s">
         <v>66</v>
       </c>
@@ -2990,7 +2991,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" s="23" t="s">
         <v>67</v>
       </c>
@@ -2998,7 +2999,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="23" t="s">
         <v>68</v>
       </c>
@@ -3006,7 +3007,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" s="23" t="s">
         <v>69</v>
       </c>
@@ -3014,7 +3015,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" s="23" t="s">
         <v>70</v>
       </c>
@@ -3022,7 +3023,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" s="23" t="s">
         <v>71</v>
       </c>
@@ -3030,7 +3031,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" s="23" t="s">
         <v>72</v>
       </c>
@@ -3038,7 +3039,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="23" t="s">
         <v>73</v>
       </c>
@@ -3046,7 +3047,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="23" t="s">
         <v>74</v>
       </c>
@@ -3054,7 +3055,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="23" t="s">
         <v>75</v>
       </c>
@@ -3062,7 +3063,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="23" t="s">
         <v>76</v>
       </c>
@@ -3070,7 +3071,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="23" t="s">
         <v>77</v>
       </c>
@@ -3078,7 +3079,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="23" t="s">
         <v>78</v>
       </c>
@@ -3086,7 +3087,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="23" t="s">
         <v>79</v>
       </c>
@@ -3094,43 +3095,43 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="23" t="s">
         <v>80</v>
       </c>
       <c r="C24" s="12"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="23" t="s">
         <v>81</v>
       </c>
       <c r="C25" s="12"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="23" t="s">
         <v>82</v>
       </c>
       <c r="C26" s="12"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" s="23" t="s">
         <v>83</v>
       </c>
       <c r="C27" s="12"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" s="23" t="s">
         <v>84</v>
       </c>
       <c r="C28" s="12"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" s="23" t="s">
         <v>85</v>
       </c>
       <c r="C29" s="12"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" s="23" t="s">
         <v>86</v>
       </c>
@@ -3155,12 +3156,12 @@
       <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="30.81640625" customWidth="1"/>
+    <col min="1" max="4" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="17" t="s">
         <v>51</v>
@@ -3172,7 +3173,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>13</v>
       </c>
@@ -3186,7 +3187,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>14</v>
       </c>
@@ -3200,7 +3201,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
         <v>34</v>
       </c>
@@ -3214,7 +3215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>35</v>
       </c>
@@ -3228,7 +3229,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>36</v>
       </c>
@@ -3242,7 +3243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="44" t="s">
         <v>63</v>
       </c>
@@ -3265,14 +3266,14 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.6328125" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
     <col min="2" max="5" width="36" customWidth="1"/>
-    <col min="6" max="6" width="26.6328125" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="17" t="s">
         <v>88</v>
@@ -3287,7 +3288,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>13</v>
       </c>
@@ -3304,7 +3305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>14</v>
       </c>
@@ -3321,7 +3322,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
         <v>34</v>
       </c>
@@ -3338,7 +3339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>35</v>
       </c>
@@ -3355,7 +3356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>36</v>
       </c>
@@ -3372,7 +3373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="41" t="s">
         <v>66</v>
       </c>
@@ -3380,7 +3381,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="41" t="s">
         <v>67</v>
       </c>
@@ -3388,7 +3389,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="41" t="s">
         <v>68</v>
       </c>
@@ -3396,7 +3397,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="41" t="s">
         <v>69</v>
       </c>
@@ -3404,7 +3405,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="41" t="s">
         <v>70</v>
       </c>
@@ -3412,7 +3413,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="41" t="s">
         <v>71</v>
       </c>
@@ -3420,7 +3421,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="41" t="s">
         <v>72</v>
       </c>
@@ -3428,7 +3429,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="41" t="s">
         <v>73</v>
       </c>
@@ -3436,7 +3437,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="41" t="s">
         <v>74</v>
       </c>
@@ -3444,7 +3445,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="41" t="s">
         <v>75</v>
       </c>
@@ -3452,7 +3453,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="41" t="s">
         <v>76</v>
       </c>
@@ -3460,7 +3461,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="41" t="s">
         <v>77</v>
       </c>
@@ -3468,7 +3469,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="41" t="s">
         <v>78</v>
       </c>
@@ -3476,7 +3477,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="41" t="s">
         <v>79</v>
       </c>
@@ -3484,7 +3485,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="41" t="s">
         <v>80</v>
       </c>
@@ -3492,7 +3493,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="41" t="s">
         <v>81</v>
       </c>
@@ -3500,7 +3501,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="41" t="s">
         <v>82</v>
       </c>
@@ -3508,7 +3509,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="41" t="s">
         <v>83</v>
       </c>
@@ -3516,7 +3517,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="41" t="s">
         <v>84</v>
       </c>
@@ -3524,7 +3525,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="41" t="s">
         <v>85</v>
       </c>
@@ -3532,7 +3533,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="41" t="s">
         <v>86</v>
       </c>

--- a/Excel/04_02_Mapping Study.xlsx
+++ b/Excel/04_02_Mapping Study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilsarnold/Documents/WIN-Studium/7. Semester/BA/Thesis/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42C1E07-A36E-5849-AE60-721F4C21E319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A14BFE-9170-D044-8E19-B18191D72A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{0DD4CFEA-C2F1-46F7-88F8-AB6F3727EE8E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{0DD4CFEA-C2F1-46F7-88F8-AB6F3727EE8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Zusammenfassung RQ1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="102">
   <si>
     <t>Anzahl Papers</t>
   </si>
@@ -358,6 +358,30 @@
   </si>
   <si>
     <t>Betrieb &amp; Orchestrierung</t>
+  </si>
+  <si>
+    <t>Optimierung von CI/CD-Pipelines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betrieb/ Orchestrierung </t>
+  </si>
+  <si>
+    <t>Metriken (Zeitreihen / Prometheus)</t>
+  </si>
+  <si>
+    <t>Logs (System / Pipeline / Apps)</t>
+  </si>
+  <si>
+    <t>Netzverkehr &amp; Traces (Netzwerk / Tracks)</t>
+  </si>
+  <si>
+    <t>Code &amp; Konfiguration</t>
+  </si>
+  <si>
+    <t>Historische Test- &amp; Deployment-Daten</t>
+  </si>
+  <si>
+    <t>Sicherheit &amp; Schwachstellen</t>
   </si>
 </sst>
 </file>
@@ -415,7 +439,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -653,11 +677,104 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -710,9 +827,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -802,6 +916,32 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1162,7 +1302,7 @@
       </c>
     </row>
     <row r="2" spans="1:46" s="4" customFormat="1" ht="51.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1218,7 +1358,7 @@
       <c r="AT2"/>
     </row>
     <row r="3" spans="1:46" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A3" s="43"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1272,7 +1412,7 @@
       <c r="AT3"/>
     </row>
     <row r="4" spans="1:46" s="4" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A4" s="43"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1326,7 +1466,7 @@
       <c r="AT4"/>
     </row>
     <row r="5" spans="1:46" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A5" s="43"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1380,7 +1520,7 @@
       <c r="AT5"/>
     </row>
     <row r="6" spans="1:46" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A6" s="43"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1434,7 +1574,7 @@
       <c r="AT6"/>
     </row>
     <row r="7" spans="1:46" s="4" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="42" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1490,7 +1630,7 @@
       <c r="AT7"/>
     </row>
     <row r="8" spans="1:46" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="43"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1544,7 +1684,7 @@
       <c r="AT8"/>
     </row>
     <row r="9" spans="1:46" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A9" s="43"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1598,7 +1738,7 @@
       <c r="AT9"/>
     </row>
     <row r="10" spans="1:46" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A10" s="43"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1652,7 +1792,7 @@
       <c r="AT10"/>
     </row>
     <row r="11" spans="1:46" s="4" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A11" s="43"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1718,7 +1858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FA32D9-5FDF-4B13-A8A2-A3E26E74C01B}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -1729,7 +1869,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="13" t="s">
@@ -1840,7 +1980,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2681,130 +2821,294 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B9B836-856D-4E27-9EE4-62FFF85FE8A1}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="29.83203125" customWidth="1"/>
+    <col min="1" max="4" width="29.83203125" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" customWidth="1"/>
+    <col min="6" max="7" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-      <c r="B1" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="21">
+    <row r="1" spans="1:7" ht="65" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="58"/>
+      <c r="B1" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="54" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="56">
+        <v>9</v>
+      </c>
+      <c r="C2" s="51">
+        <v>6</v>
+      </c>
+      <c r="D2" s="51">
+        <v>4</v>
+      </c>
+      <c r="E2" s="52">
+        <v>7</v>
+      </c>
+      <c r="F2" s="52">
+        <v>9</v>
+      </c>
+      <c r="G2" s="52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="57">
+        <v>12</v>
+      </c>
+      <c r="C3" s="20">
+        <v>9</v>
+      </c>
+      <c r="D3" s="20">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4">
+        <v>7</v>
+      </c>
+      <c r="F3" s="4">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="57">
+        <v>11</v>
+      </c>
+      <c r="C4" s="20">
+        <v>9</v>
+      </c>
+      <c r="D4" s="20">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4">
         <v>8</v>
       </c>
-      <c r="C2" s="21">
-        <v>7</v>
-      </c>
-      <c r="D2" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="21">
-        <v>13</v>
-      </c>
-      <c r="C3" s="21">
+    </row>
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="57">
+        <v>14</v>
+      </c>
+      <c r="C5" s="20">
+        <v>10</v>
+      </c>
+      <c r="D5" s="20">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4">
         <v>9</v>
       </c>
-      <c r="D3" s="21">
+      <c r="F5" s="4">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="21">
-        <v>13</v>
-      </c>
-      <c r="C4" s="21">
-        <v>10</v>
-      </c>
-      <c r="D4" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="21">
-        <v>14</v>
-      </c>
-      <c r="C5" s="21">
-        <v>9</v>
-      </c>
-      <c r="D5" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="21">
-        <v>12</v>
-      </c>
-      <c r="C6" s="21">
-        <v>8</v>
-      </c>
-      <c r="D6" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+    <row r="7" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A7:C7"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2824,59 +3128,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="32" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="23">
         <v>7</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="23">
         <v>12</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="23">
         <v>11</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="23">
         <v>12</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="49"/>
-      <c r="B4" s="34" t="s">
+      <c r="A4" s="48"/>
+      <c r="B4" s="33" t="s">
         <v>57</v>
       </c>
       <c r="C4" s="2">
@@ -2891,100 +3195,100 @@
       <c r="F4" s="2">
         <v>5</v>
       </c>
-      <c r="G4" s="35">
+      <c r="G4" s="34">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
-      <c r="B5" s="27" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="24">
         <v>3</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="24">
         <v>6</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="24">
         <v>4</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="24">
         <v>5</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="23">
         <v>6</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="23">
         <v>8</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <v>8</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="23">
         <v>8</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="27">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="27" t="s">
+      <c r="A7" s="49"/>
+      <c r="B7" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="24">
         <v>3</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="24">
         <v>4</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="24">
         <v>4</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="24">
         <v>5</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="28">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="37">
         <v>5</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="37">
         <v>6</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="37">
         <v>7</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="37">
         <v>5</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="38">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>66</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -2992,7 +3296,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>67</v>
       </c>
       <c r="C11" s="12" t="s">
@@ -3000,7 +3304,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>68</v>
       </c>
       <c r="C12" s="12" t="s">
@@ -3008,7 +3312,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>69</v>
       </c>
       <c r="C13" s="12" t="s">
@@ -3016,7 +3320,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>70</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -3024,7 +3328,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>71</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -3032,7 +3336,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>72</v>
       </c>
       <c r="C16" s="12" t="s">
@@ -3040,7 +3344,7 @@
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
         <v>73</v>
       </c>
       <c r="C17" s="12" t="s">
@@ -3048,7 +3352,7 @@
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="22" t="s">
         <v>74</v>
       </c>
       <c r="C18" s="12" t="s">
@@ -3056,7 +3360,7 @@
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
         <v>75</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -3064,7 +3368,7 @@
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>76</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -3072,7 +3376,7 @@
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="22" t="s">
         <v>77</v>
       </c>
       <c r="C21" s="12" t="s">
@@ -3080,7 +3384,7 @@
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
         <v>78</v>
       </c>
       <c r="C22" s="12" t="s">
@@ -3088,7 +3392,7 @@
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="22" t="s">
         <v>79</v>
       </c>
       <c r="C23" s="12" t="s">
@@ -3096,43 +3400,43 @@
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="22" t="s">
         <v>80</v>
       </c>
       <c r="C24" s="12"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="22" t="s">
         <v>81</v>
       </c>
       <c r="C25" s="12"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="22" t="s">
         <v>82</v>
       </c>
       <c r="C26" s="12"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="22" t="s">
         <v>83</v>
       </c>
       <c r="C27" s="12"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="22" t="s">
         <v>84</v>
       </c>
       <c r="C28" s="12"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="22" t="s">
         <v>85</v>
       </c>
       <c r="C29" s="12"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="22" t="s">
         <v>86</v>
       </c>
       <c r="C30" s="12"/>
@@ -3174,81 +3478,81 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="20">
         <v>16</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="20">
         <v>12</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="20">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="20">
         <v>15</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="20">
         <v>10</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="20">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="20">
         <v>15</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20">
         <v>10</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="20">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="20">
         <v>13</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <v>9</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="20">
         <v>12</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <v>9</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="20">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3289,92 +3593,92 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="39">
         <v>11</v>
       </c>
-      <c r="C2" s="40">
+      <c r="C2" s="39">
         <v>14</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="39">
         <v>11</v>
       </c>
-      <c r="E2" s="40">
+      <c r="E2" s="39">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="39">
         <v>11</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="39">
         <v>13</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="39">
         <v>11</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="39">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="39">
         <v>8</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="39">
         <v>12</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="39">
         <v>10</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="39">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="39">
         <v>8</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="39">
         <v>12</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="39">
         <v>9</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="39">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="39">
         <v>9</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="39">
         <v>11</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="39">
         <v>9</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="39">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="40" t="s">
         <v>66</v>
       </c>
       <c r="B9" t="s">
@@ -3382,7 +3686,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="40" t="s">
         <v>67</v>
       </c>
       <c r="B10" t="s">
@@ -3390,7 +3694,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="40" t="s">
         <v>68</v>
       </c>
       <c r="B11" t="s">
@@ -3398,7 +3702,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="40" t="s">
         <v>69</v>
       </c>
       <c r="B12" t="s">
@@ -3406,7 +3710,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="40" t="s">
         <v>70</v>
       </c>
       <c r="B13" t="s">
@@ -3414,7 +3718,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="40" t="s">
         <v>71</v>
       </c>
       <c r="B14" t="s">
@@ -3422,7 +3726,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="40" t="s">
         <v>72</v>
       </c>
       <c r="B15" t="s">
@@ -3430,7 +3734,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="40" t="s">
         <v>73</v>
       </c>
       <c r="B16" t="s">
@@ -3438,7 +3742,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="40" t="s">
         <v>74</v>
       </c>
       <c r="B17" t="s">
@@ -3446,7 +3750,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="40" t="s">
         <v>75</v>
       </c>
       <c r="B18" t="s">
@@ -3454,7 +3758,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="40" t="s">
         <v>76</v>
       </c>
       <c r="B19" t="s">
@@ -3462,7 +3766,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="40" t="s">
         <v>77</v>
       </c>
       <c r="B20" t="s">
@@ -3470,7 +3774,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="40" t="s">
         <v>78</v>
       </c>
       <c r="B21" t="s">
@@ -3478,7 +3782,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="40" t="s">
         <v>79</v>
       </c>
       <c r="B22" t="s">
@@ -3486,7 +3790,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="40" t="s">
         <v>80</v>
       </c>
       <c r="B23" t="s">
@@ -3494,7 +3798,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="40" t="s">
         <v>81</v>
       </c>
       <c r="B24" t="s">
@@ -3502,7 +3806,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="40" t="s">
         <v>82</v>
       </c>
       <c r="B25" t="s">
@@ -3510,7 +3814,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="40" t="s">
         <v>83</v>
       </c>
       <c r="B26" t="s">
@@ -3518,7 +3822,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="40" t="s">
         <v>84</v>
       </c>
       <c r="B27" t="s">
@@ -3526,7 +3830,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="40" t="s">
         <v>85</v>
       </c>
       <c r="B28" t="s">
@@ -3534,7 +3838,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="40" t="s">
         <v>86</v>
       </c>
       <c r="B29" t="s">
